--- a/OnBoard/data/target_species.xlsx
+++ b/OnBoard/data/target_species.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bcb1d8ec36d6377/Lezioni/Lavoro/Solemon/github/SoleMon_project/OnBoard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bcb1d8ec36d6377/Lezioni/Lavoro/Solemon/AtSeaData/2024/OnBoard_2024_ENA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_3FEA72337CD8643D10A807C3E017AD6CE6E9D224" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8223F882-AE44-4873-9023-54203E90315A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1FC44C-2454-44B3-8331-4AC94B6E4CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>species_name</t>
   </si>
@@ -82,12 +82,6 @@
     <t>AEQUOPE</t>
   </si>
   <si>
-    <t>CHLAPRO</t>
-  </si>
-  <si>
-    <t>CHLAVAR</t>
-  </si>
-  <si>
     <t>MUREBRA</t>
   </si>
   <si>
@@ -119,6 +113,15 @@
   </si>
   <si>
     <t>NEPRNOR</t>
+  </si>
+  <si>
+    <t>LIOCDEP</t>
+  </si>
+  <si>
+    <t>CHLAGLA</t>
+  </si>
+  <si>
+    <t>PENAZTC</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +442,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -602,8 +611,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1087,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1100,8 +1110,8 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
+      <c r="A17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1109,7 +1119,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1117,7 +1127,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1125,7 +1135,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1133,7 +1143,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1141,15 +1151,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1157,7 +1167,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1165,7 +1175,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1173,7 +1183,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1181,7 +1191,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1189,7 +1199,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1197,7 +1207,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1205,7 +1215,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1213,7 +1223,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1221,9 +1231,17 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
     </row>

--- a/OnBoard/data/target_species.xlsx
+++ b/OnBoard/data/target_species.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bcb1d8ec36d6377/Lezioni/Lavoro/Solemon/AtSeaData/2024/OnBoard_2024_ENA/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.luzi\OneDrive - CNR\CNR\SoleMon\solemon2024\access_da_modificare\SoleMon_project-main\OnBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED1FC44C-2454-44B3-8331-4AC94B6E4CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="target_species" sheetId="1" r:id="rId1"/>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,48 +615,48 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,179 +988,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1229,11 +1228,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
     </row>

--- a/OnBoard/data/target_species.xlsx
+++ b/OnBoard/data/target_species.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.luzi\OneDrive - CNR\CNR\SoleMon\solemon2024\access_da_modificare\SoleMon_project-main\OnBoard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.luzi\OneDrive - CNR\CNR\SoleMon\Github\SoleMon_project\OnBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -263,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +441,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -612,7 +606,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -970,25 +964,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -996,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1092,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1165,70 +1160,70 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1237,10 +1232,10 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>1</v>
       </c>
     </row>
